--- a/data/TD_NGQ_CPQ_EncoreRetirement_US9400_AddProductOrOption_06.xlsx
+++ b/data/TD_NGQ_CPQ_EncoreRetirement_US9400_AddProductOrOption_06.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ngq-demo-develop\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="9255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>OpportunityID</t>
   </si>
@@ -72,6 +67,18 @@
   </si>
   <si>
     <t>ProductNumberObs</t>
+  </si>
+  <si>
+    <t>BundleID</t>
+  </si>
+  <si>
+    <t>BundleProductNumber</t>
+  </si>
+  <si>
+    <t>EB001336</t>
+  </si>
+  <si>
+    <t>696910-B21</t>
   </si>
 </sst>
 </file>
@@ -405,7 +412,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -413,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,9 +439,11 @@
     <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -468,8 +477,14 @@
       <c r="K1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="L1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
@@ -487,6 +502,12 @@
       </c>
       <c r="J2">
         <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
